--- a/a.xlsx
+++ b/a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t>Home</t>
   </si>
@@ -82,28 +82,175 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>W49</t>
-  </si>
-  <si>
-    <t>W50</t>
-  </si>
-  <si>
-    <t>Grand Final</t>
-  </si>
-  <si>
-    <t>[0.41 0.08 0.51]</t>
-  </si>
-  <si>
-    <t>[0.22 0.33 0.45]</t>
-  </si>
-  <si>
-    <t>[0.315, 0.20500000000000002, 0.48]</t>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>1F</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>Round of 16</t>
+  </si>
+  <si>
+    <t>[0.5 0.2 0.3]</t>
+  </si>
+  <si>
+    <t>[0.57 0.18 0.25]</t>
+  </si>
+  <si>
+    <t>[0.24 0.67 0.09]</t>
+  </si>
+  <si>
+    <t>[0.6  0.36 0.04]</t>
+  </si>
+  <si>
+    <t>[0.51 0.24 0.25]</t>
+  </si>
+  <si>
+    <t>[0.14 0.73 0.13]</t>
+  </si>
+  <si>
+    <t>[0.54 0.37 0.09]</t>
+  </si>
+  <si>
+    <t>[0.32 0.57 0.11]</t>
+  </si>
+  <si>
+    <t>[0.09 0.42 0.49]</t>
+  </si>
+  <si>
+    <t>[0.09 0.18 0.73]</t>
+  </si>
+  <si>
+    <t>[0.43 0.46 0.11]</t>
+  </si>
+  <si>
+    <t>[0.42 0.35 0.23]</t>
+  </si>
+  <si>
+    <t>[0.18 0.32 0.5 ]</t>
+  </si>
+  <si>
+    <t>[0.24 0.65 0.11]</t>
+  </si>
+  <si>
+    <t>[0.45 0.39 0.16]</t>
+  </si>
+  <si>
+    <t>[0.34 0.46 0.2 ]</t>
+  </si>
+  <si>
+    <t>[0.295, 0.31, 0.395]</t>
+  </si>
+  <si>
+    <t>[0.32999999999999996, 0.18, 0.49]</t>
+  </si>
+  <si>
+    <t>[0.33499999999999996, 0.5650000000000001, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.51, 0.355, 0.135]</t>
+  </si>
+  <si>
+    <t>[0.345, 0.28, 0.375]</t>
+  </si>
+  <si>
+    <t>[0.19, 0.69, 0.12]</t>
+  </si>
+  <si>
+    <t>[0.495, 0.38, 0.125]</t>
+  </si>
+  <si>
+    <t>[0.33, 0.515, 0.155]</t>
   </si>
 </sst>
 </file>
@@ -461,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,70 +684,546 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I2">
-        <v>1742.29</v>
+        <v>1644.21</v>
       </c>
       <c r="J2">
-        <v>1840.59</v>
+        <v>1721.07</v>
       </c>
       <c r="K2">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>12.99</v>
+      </c>
+      <c r="O2">
+        <v>3.5</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
         <v>7</v>
       </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
-        <v>-3.19</v>
-      </c>
-      <c r="O2">
-        <v>-4.85</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2">
-        <v>4</v>
-      </c>
-      <c r="S2">
-        <v>5</v>
-      </c>
       <c r="T2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="U2" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="V2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="W2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3">
+        <v>1616.41</v>
+      </c>
+      <c r="J3">
+        <v>1794.9</v>
+      </c>
+      <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>15</v>
+      </c>
+      <c r="N3">
+        <v>2.97</v>
+      </c>
+      <c r="O3">
+        <v>-5.15</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4">
+        <v>1602.72</v>
+      </c>
+      <c r="J4">
+        <v>1495.94</v>
+      </c>
+      <c r="K4">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>40</v>
+      </c>
+      <c r="M4">
+        <v>-19</v>
+      </c>
+      <c r="N4">
+        <v>1.41</v>
+      </c>
+      <c r="O4">
+        <v>-9.34</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>9</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5">
+        <v>1727.5</v>
+      </c>
+      <c r="J5">
+        <v>1468.17</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>46</v>
+      </c>
+      <c r="M5">
+        <v>-38</v>
+      </c>
+      <c r="N5">
+        <v>-5.14</v>
+      </c>
+      <c r="O5">
+        <v>-4.56</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6">
+        <v>1554.86</v>
+      </c>
+      <c r="J6">
+        <v>1568.86</v>
+      </c>
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="L6">
+        <v>22</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>8.76</v>
+      </c>
+      <c r="O6">
+        <v>15.51</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" t="s">
+        <v>67</v>
+      </c>
+      <c r="V6" t="s">
+        <v>75</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="1">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7">
+        <v>1748.11</v>
+      </c>
+      <c r="J7">
+        <v>1532.2</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <v>-20</v>
+      </c>
+      <c r="N7">
+        <v>3.05</v>
+      </c>
+      <c r="O7">
+        <v>7.07</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" t="s">
+        <v>68</v>
+      </c>
+      <c r="V7" t="s">
+        <v>76</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8">
+        <v>1795.23</v>
+      </c>
+      <c r="J8">
+        <v>1724.6</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <v>-6</v>
+      </c>
+      <c r="N8">
+        <v>-3.23</v>
+      </c>
+      <c r="O8">
+        <v>5.78</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" t="s">
+        <v>69</v>
+      </c>
+      <c r="V8" t="s">
+        <v>77</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9">
+        <v>1531.49</v>
+      </c>
+      <c r="J9">
+        <v>1501.47</v>
+      </c>
+      <c r="K9">
+        <v>28</v>
+      </c>
+      <c r="L9">
+        <v>36</v>
+      </c>
+      <c r="M9">
+        <v>-8</v>
+      </c>
+      <c r="N9">
+        <v>11.25</v>
+      </c>
+      <c r="O9">
+        <v>7.43</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" t="s">
+        <v>78</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
